--- a/ACTIVSg200/6.IL200_dyn_80wt_ts.xlsx
+++ b/ACTIVSg200/6.IL200_dyn_80wt_ts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/turbinegov/ACTIVSg200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66CB873-B021-E842-B249-718662FC4973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A70C7-974C-AC43-9022-4BC0941A873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="GENROU" sheetId="8" r:id="rId8"/>
     <sheet name="TGOV1N" sheetId="9" r:id="rId9"/>
-    <sheet name="IEEEG1TS" sheetId="10" r:id="rId10"/>
+    <sheet name="IEEEG1TS2" sheetId="10" r:id="rId10"/>
     <sheet name="GAST" sheetId="11" r:id="rId11"/>
     <sheet name="SEXS" sheetId="12" r:id="rId12"/>
     <sheet name="REGCA1" sheetId="13" r:id="rId13"/>
@@ -3645,7 +3645,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12503,9 +12503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomLeft" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -12854,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -12940,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -16102,7 +16102,7 @@
         <v>0.5</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -16176,7 +16176,7 @@
         <v>0.5</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -16250,7 +16250,7 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -16324,7 +16324,7 @@
         <v>0.5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -16398,7 +16398,7 @@
         <v>0.5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -16472,7 +16472,7 @@
         <v>0.5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -16546,7 +16546,7 @@
         <v>0.5</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -16620,7 +16620,7 @@
         <v>0.5</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -16694,7 +16694,7 @@
         <v>0.5</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -16768,7 +16768,7 @@
         <v>0.5</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -16842,7 +16842,7 @@
         <v>0.5</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -16916,7 +16916,7 @@
         <v>0.5</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -16990,7 +16990,7 @@
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -17064,7 +17064,7 @@
         <v>0.5</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -17138,7 +17138,7 @@
         <v>0.5</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>0.5</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -17286,7 +17286,7 @@
         <v>0.5</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -17360,7 +17360,7 @@
         <v>0.5</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -17434,7 +17434,7 @@
         <v>0.5</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -17508,7 +17508,7 @@
         <v>0.5</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -17582,7 +17582,7 @@
         <v>0.5</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -17656,7 +17656,7 @@
         <v>0.5</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -17730,7 +17730,7 @@
         <v>0.5</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -17804,7 +17804,7 @@
         <v>0.5</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -17878,7 +17878,7 @@
         <v>0.5</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1</v>

--- a/ACTIVSg200/6.IL200_dyn_80wt_ts.xlsx
+++ b/ACTIVSg200/6.IL200_dyn_80wt_ts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/turbinegov/ACTIVSg200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A70C7-974C-AC43-9022-4BC0941A873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21043E76-1F32-7049-85EF-6CF4EE8FC468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="1076">
   <si>
     <t>idx</t>
   </si>
@@ -2474,6 +2474,9 @@
   </si>
   <si>
     <t>IEEEG1_11</t>
+  </si>
+  <si>
+    <t>IEEEG1_12</t>
   </si>
   <si>
     <t>KT</t>
@@ -3645,7 +3648,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12501,11 +12504,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC4" sqref="AC4"/>
+      <selection pane="bottomLeft" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12596,7 +12599,7 @@
         <v>801</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -12613,7 +12616,7 @@
         <v>802</v>
       </c>
       <c r="E2" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12622,13 +12625,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>0.32031900000000002</v>
+        <v>0.27889199999999997</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>2.5094400000000001</v>
       </c>
       <c r="L2">
         <v>0.1</v>
@@ -12655,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>6.3000600000000002</v>
+        <v>7.52841</v>
       </c>
       <c r="U2">
         <v>0.5</v>
@@ -12682,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -12699,7 +12702,7 @@
         <v>803</v>
       </c>
       <c r="E3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -12708,13 +12711,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.32031900000000002</v>
       </c>
       <c r="K3">
-        <v>2.50874</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
         <v>0.1</v>
@@ -12741,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7.5263</v>
+        <v>6.3000600000000002</v>
       </c>
       <c r="U3">
         <v>0.5</v>
@@ -12768,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -12785,7 +12788,7 @@
         <v>804</v>
       </c>
       <c r="E4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12794,13 +12797,13 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2.50874</v>
       </c>
       <c r="L4">
         <v>0.1</v>
@@ -12827,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9.0000900000000001</v>
+        <v>7.5263</v>
       </c>
       <c r="U4">
         <v>0.5</v>
@@ -12854,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -12871,7 +12874,7 @@
         <v>805</v>
       </c>
       <c r="E5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12880,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -12940,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -12957,7 +12960,7 @@
         <v>806</v>
       </c>
       <c r="E6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12966,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>0.5</v>
@@ -13026,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -13043,7 +13046,7 @@
         <v>807</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13058,7 +13061,7 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0.1</v>
@@ -13085,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="U7">
         <v>0.5</v>
@@ -13112,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -13129,7 +13132,7 @@
         <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13138,13 +13141,13 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>0.41585</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
         <v>0.1</v>
@@ -13171,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9.0000900000000001</v>
+        <v>7</v>
       </c>
       <c r="U8">
         <v>0.5</v>
@@ -13198,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -13215,7 +13218,7 @@
         <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13227,7 +13230,7 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>0.41585</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -13284,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -13301,7 +13304,7 @@
         <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13370,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -13387,7 +13390,7 @@
         <v>811</v>
       </c>
       <c r="E11" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13456,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -13473,7 +13476,7 @@
         <v>812</v>
       </c>
       <c r="E12" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -13488,7 +13491,7 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.71988200000000002</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>0.1</v>
@@ -13515,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2.39961</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="U12">
         <v>0.5</v>
@@ -13542,7 +13545,93 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>200</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E13" t="s">
+        <v>707</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>0.71988200000000002</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0.1</v>
+      </c>
+      <c r="N13">
+        <v>-0.1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2.39961</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.05</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -13593,10 +13682,10 @@
         <v>730</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>731</v>
@@ -13616,13 +13705,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E2" t="s">
         <v>689</v>
@@ -13666,13 +13755,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E3" t="s">
         <v>690</v>
@@ -13716,13 +13805,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E4" t="s">
         <v>691</v>
@@ -13766,13 +13855,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E5" t="s">
         <v>692</v>
@@ -13816,13 +13905,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E6" t="s">
         <v>694</v>
@@ -13866,13 +13955,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E7" t="s">
         <v>695</v>
@@ -13916,13 +14005,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E8" t="s">
         <v>713</v>
@@ -13966,13 +14055,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E9" t="s">
         <v>715</v>
@@ -14016,13 +14105,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E10" t="s">
         <v>716</v>
@@ -14066,13 +14155,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E11" t="s">
         <v>717</v>
@@ -14116,13 +14205,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E12" t="s">
         <v>718</v>
@@ -14166,13 +14255,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E13" t="s">
         <v>719</v>
@@ -14244,22 +14333,22 @@
         <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>785</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -14267,13 +14356,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E2" t="s">
         <v>676</v>
@@ -14302,13 +14391,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E3" t="s">
         <v>677</v>
@@ -14337,13 +14426,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E4" t="s">
         <v>678</v>
@@ -14372,13 +14461,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E5" t="s">
         <v>679</v>
@@ -14407,13 +14496,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E6" t="s">
         <v>680</v>
@@ -14442,13 +14531,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E7" t="s">
         <v>681</v>
@@ -14477,13 +14566,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E8" t="s">
         <v>682</v>
@@ -14512,13 +14601,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E9" t="s">
         <v>683</v>
@@ -14547,13 +14636,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E10" t="s">
         <v>684</v>
@@ -14582,13 +14671,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E11" t="s">
         <v>685</v>
@@ -14617,13 +14706,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E12" t="s">
         <v>686</v>
@@ -14652,13 +14741,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E13" t="s">
         <v>687</v>
@@ -14687,13 +14776,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E14" t="s">
         <v>688</v>
@@ -14722,13 +14811,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E15" t="s">
         <v>689</v>
@@ -14757,13 +14846,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -14792,13 +14881,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E17" t="s">
         <v>691</v>
@@ -14827,13 +14916,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E18" t="s">
         <v>692</v>
@@ -14862,13 +14951,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E19" t="s">
         <v>693</v>
@@ -14897,13 +14986,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E20" t="s">
         <v>694</v>
@@ -14932,13 +15021,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E21" t="s">
         <v>695</v>
@@ -14967,13 +15056,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E22" t="s">
         <v>696</v>
@@ -15002,13 +15091,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E23" t="s">
         <v>697</v>
@@ -15037,13 +15126,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E24" t="s">
         <v>698</v>
@@ -15072,13 +15161,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E25" t="s">
         <v>699</v>
@@ -15107,13 +15196,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E26" t="s">
         <v>700</v>
@@ -15142,13 +15231,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E27" t="s">
         <v>701</v>
@@ -15177,13 +15266,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E28" t="s">
         <v>702</v>
@@ -15212,13 +15301,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E29" t="s">
         <v>703</v>
@@ -15247,13 +15336,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E30" t="s">
         <v>704</v>
@@ -15282,13 +15371,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E31" t="s">
         <v>705</v>
@@ -15317,13 +15406,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E32" t="s">
         <v>706</v>
@@ -15352,13 +15441,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E33" t="s">
         <v>707</v>
@@ -15387,13 +15476,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E34" t="s">
         <v>708</v>
@@ -15422,13 +15511,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E35" t="s">
         <v>709</v>
@@ -15457,13 +15546,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E36" t="s">
         <v>710</v>
@@ -15492,13 +15581,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E37" t="s">
         <v>711</v>
@@ -15527,13 +15616,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E38" t="s">
         <v>712</v>
@@ -15562,13 +15651,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E39" t="s">
         <v>713</v>
@@ -15597,13 +15686,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E40" t="s">
         <v>714</v>
@@ -15632,13 +15721,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E41" t="s">
         <v>715</v>
@@ -15667,13 +15756,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E42" t="s">
         <v>716</v>
@@ -15702,13 +15791,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E43" t="s">
         <v>717</v>
@@ -15737,13 +15826,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E44" t="s">
         <v>718</v>
@@ -15772,13 +15861,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E45" t="s">
         <v>719</v>
@@ -15807,13 +15896,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E46" t="s">
         <v>720</v>
@@ -15842,13 +15931,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E47" t="s">
         <v>721</v>
@@ -15877,13 +15966,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E48" t="s">
         <v>722</v>
@@ -15912,13 +16001,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E49" t="s">
         <v>723</v>
@@ -15947,13 +16036,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E50" t="s">
         <v>724</v>
@@ -16016,49 +16105,49 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>665</v>
@@ -16072,13 +16161,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -16146,13 +16235,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E3">
         <v>68</v>
@@ -16220,13 +16309,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E4">
         <v>69</v>
@@ -16294,13 +16383,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -16368,13 +16457,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E6">
         <v>90</v>
@@ -16442,13 +16531,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E7">
         <v>104</v>
@@ -16516,13 +16605,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E8">
         <v>105</v>
@@ -16590,13 +16679,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E9">
         <v>114</v>
@@ -16664,13 +16753,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E10">
         <v>115</v>
@@ -16738,13 +16827,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E11">
         <v>125</v>
@@ -16812,13 +16901,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E12">
         <v>126</v>
@@ -16886,13 +16975,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E13">
         <v>127</v>
@@ -16960,13 +17049,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E14">
         <v>135</v>
@@ -17034,13 +17123,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E15">
         <v>136</v>
@@ -17108,13 +17197,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E16">
         <v>147</v>
@@ -17182,13 +17271,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E17">
         <v>152</v>
@@ -17256,13 +17345,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E18">
         <v>153</v>
@@ -17330,13 +17419,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E19">
         <v>154</v>
@@ -17404,13 +17493,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E20">
         <v>155</v>
@@ -17478,13 +17567,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E21">
         <v>161</v>
@@ -17552,13 +17641,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E22">
         <v>165</v>
@@ -17626,13 +17715,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E23">
         <v>182</v>
@@ -17700,13 +17789,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E24">
         <v>183</v>
@@ -17774,13 +17863,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E25">
         <v>196</v>
@@ -17848,13 +17937,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E26">
         <v>197</v>
@@ -17947,70 +18036,70 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>729</v>
@@ -18019,28 +18108,28 @@
         <v>730</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>788</v>
@@ -18049,58 +18138,58 @@
         <v>789</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
@@ -18108,16 +18197,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18275,16 +18364,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -18442,16 +18531,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -18609,16 +18698,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18776,16 +18865,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E6" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -18943,16 +19032,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -19110,16 +19199,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -19277,16 +19366,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -19444,16 +19533,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19611,16 +19700,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E11" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -19778,16 +19867,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E12" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19945,16 +20034,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -20112,16 +20201,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -20279,16 +20368,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E15" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -20446,16 +20535,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -20613,16 +20702,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E17" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -20780,16 +20869,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E18" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -20947,16 +21036,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E19" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -21114,16 +21203,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -21281,16 +21370,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E21" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -21448,16 +21537,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -21615,16 +21704,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E23" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -21782,16 +21871,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E24" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -21949,16 +22038,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E25" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -22116,16 +22205,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E26" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -22308,109 +22397,109 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
@@ -22418,16 +22507,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F2" t="s">
         <v>595</v>
@@ -22525,16 +22614,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F3" t="s">
         <v>597</v>
@@ -22632,16 +22721,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4" t="s">
         <v>598</v>
@@ -22739,16 +22828,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F5" t="s">
         <v>599</v>
@@ -22846,16 +22935,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6" t="s">
         <v>609</v>
@@ -22953,16 +23042,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F7" t="s">
         <v>615</v>
@@ -23060,16 +23149,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F8" t="s">
         <v>616</v>
@@ -23167,16 +23256,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F9" t="s">
         <v>618</v>
@@ -23274,16 +23363,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F10" t="s">
         <v>619</v>
@@ -23381,16 +23470,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F11" t="s">
         <v>623</v>
@@ -23488,16 +23577,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F12" t="s">
         <v>624</v>
@@ -23595,16 +23684,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F13" t="s">
         <v>625</v>
@@ -23702,16 +23791,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F14" t="s">
         <v>628</v>
@@ -23809,16 +23898,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E15" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F15" t="s">
         <v>629</v>
@@ -23916,16 +24005,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F16" t="s">
         <v>630</v>
@@ -24023,16 +24112,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F17" t="s">
         <v>633</v>
@@ -24130,16 +24219,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F18" t="s">
         <v>634</v>
@@ -24237,16 +24326,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E19" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F19" t="s">
         <v>635</v>
@@ -24344,16 +24433,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F20" t="s">
         <v>636</v>
@@ -24451,16 +24540,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F21" t="s">
         <v>638</v>
@@ -24558,16 +24647,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F22" t="s">
         <v>640</v>
@@ -24665,16 +24754,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F23" t="s">
         <v>647</v>
@@ -24772,16 +24861,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F24" t="s">
         <v>648</v>
@@ -24879,16 +24968,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F25" t="s">
         <v>651</v>
@@ -24986,16 +25075,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F26" t="s">
         <v>652</v>
@@ -25118,16 +25207,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -25135,16 +25224,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -25161,16 +25250,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -25187,16 +25276,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -25213,16 +25302,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -25239,16 +25328,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -25265,16 +25354,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -25291,16 +25380,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -25317,16 +25406,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -25343,16 +25432,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -25369,16 +25458,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -25395,16 +25484,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -25421,16 +25510,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -25447,16 +25536,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -25473,16 +25562,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E15" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -25499,16 +25588,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -25525,16 +25614,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -25551,16 +25640,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E18" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -25577,16 +25666,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E19" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -25603,16 +25692,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E20" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -25629,16 +25718,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -25655,16 +25744,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E22" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -25681,16 +25770,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E23" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -25707,16 +25796,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E24" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -25733,16 +25822,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -25759,16 +25848,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -54234,7 +54323,7 @@
         <v>691</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>691</v>
@@ -54323,7 +54412,7 @@
         <v>692</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>692</v>
@@ -54590,7 +54679,7 @@
         <v>695</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>695</v>
@@ -56192,7 +56281,7 @@
         <v>713</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>713</v>
@@ -56370,7 +56459,7 @@
         <v>715</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>715</v>
@@ -56548,7 +56637,7 @@
         <v>717</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>717</v>
@@ -56637,7 +56726,7 @@
         <v>718</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>718</v>
@@ -59344,7 +59433,7 @@
         <v>781</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>781</v>
